--- a/TestData/TMTI0063927_VerifyViewCounterpartiesButtonAndViewsOnSalesforceLightningVersion.xlsx
+++ b/TestData/TMTI0063927_VerifyViewCounterpartiesButtonAndViewsOnSalesforceLightningVersion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F182683F-B93E-46B4-9336-EDE1619B6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADEC8EE-9EB2-4135-916B-114EE72F4F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Opportunities" sheetId="5" r:id="rId4"/>
     <sheet name="AddOpportunity" sheetId="12" r:id="rId5"/>
     <sheet name="FilterSections" sheetId="6" r:id="rId6"/>
-    <sheet name="NewOpportunityCounterparty" sheetId="7" r:id="rId7"/>
-    <sheet name="CounterpartyContact" sheetId="8" r:id="rId8"/>
-    <sheet name="CounterpartiesPageButton" sheetId="9" r:id="rId9"/>
-    <sheet name="OpportunityWithJobType" sheetId="11" r:id="rId10"/>
+    <sheet name="CounterpartiesButton" sheetId="13" r:id="rId7"/>
+    <sheet name="NewOpportunityCounterparty" sheetId="7" r:id="rId8"/>
+    <sheet name="CounterpartyContact" sheetId="8" r:id="rId9"/>
+    <sheet name="CounterpartiesPageButton" sheetId="9" r:id="rId10"/>
+    <sheet name="OpportunityWithJobType" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
   <si>
     <t>James Craven</t>
   </si>
@@ -140,9 +141,6 @@
     <t>Add Counterparties</t>
   </si>
   <si>
-    <t>Import with Dataloader</t>
-  </si>
-  <si>
     <t>Export Data</t>
   </si>
   <si>
@@ -158,12 +156,6 @@
     <t>Sellside</t>
   </si>
   <si>
-    <t>Debt Capital Markets</t>
-  </si>
-  <si>
-    <t>Equity Capital Markets</t>
-  </si>
-  <si>
     <t>Job Types</t>
   </si>
   <si>
@@ -173,12 +165,6 @@
     <t>Adeka Corporation</t>
   </si>
   <si>
-    <t>A-Gas</t>
-  </si>
-  <si>
-    <t>Bayswater Partial Monetization</t>
-  </si>
-  <si>
     <t>View All</t>
   </si>
   <si>
@@ -188,9 +174,6 @@
     <t>Not Close/Dead/Hold/Engaged</t>
   </si>
   <si>
-    <t>Gemma Hardy</t>
-  </si>
-  <si>
     <t>CAO</t>
   </si>
   <si>
@@ -203,9 +186,6 @@
     <t>JobType</t>
   </si>
   <si>
-    <t>IndustryGroup</t>
-  </si>
-  <si>
     <t>Sector</t>
   </si>
   <si>
@@ -287,55 +267,85 @@
     <t>Techno Coatings, Inc.</t>
   </si>
   <si>
+    <t>Dealership &amp; Rental Services</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HL Capital, Inc.</t>
+  </si>
+  <si>
+    <t>Do Not Disclose</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Public Equity</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Chris Lord</t>
+  </si>
+  <si>
+    <t>Yes, separate signed agreement</t>
+  </si>
+  <si>
+    <t>Cleared</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>View All Company List</t>
+  </si>
+  <si>
+    <t>122209-Buyers List-Tuck</t>
+  </si>
+  <si>
+    <t>Bayswater Dividend Recap</t>
+  </si>
+  <si>
+    <t>IndustryGroup/HLSector</t>
+  </si>
+  <si>
+    <t>Add Counterparty</t>
+  </si>
+  <si>
+    <t>CounterpartiesButton</t>
+  </si>
+  <si>
     <t>BUS - Business Services</t>
   </si>
   <si>
-    <t>Dealership &amp; Rental Services</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Accountant</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>HL Capital, Inc.</t>
-  </si>
-  <si>
-    <t>Do Not Disclose</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Public Equity</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Chris Lord</t>
-  </si>
-  <si>
-    <t>Yes, separate signed agreement</t>
-  </si>
-  <si>
-    <t>Cleared</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Abrasive Form</t>
+  </si>
+  <si>
+    <t>Jennie Stewart</t>
+  </si>
+  <si>
+    <t>Debt Financing</t>
+  </si>
+  <si>
+    <t>Equity Placements</t>
   </si>
 </sst>
 </file>
@@ -725,16 +735,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -742,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -750,12 +760,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -764,73 +774,126 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD3FF30-5810-42A4-B6D3-B7BD65EBF170}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30953EE-CA2E-4F7C-B9BA-21629FCB862C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -845,17 +908,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -873,17 +936,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -899,16 +962,16 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -916,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -924,10 +987,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="2"/>
     </row>
   </sheetData>
@@ -940,194 +1003,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD13242-055E-41A8-80D8-6F50F1B57F7C}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="X1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="AA1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="F2" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="L2" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="M2" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" t="s">
-        <v>88</v>
-      </c>
-      <c r="S2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="U2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>95</v>
-      </c>
       <c r="AA2" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1137,21 +1203,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F94DFB-4724-4A5C-994B-DCCD1086734F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1182,6 +1249,9 @@
       </c>
       <c r="C3" t="s">
         <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1191,29 +1261,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4780488B-FFD3-40DA-A9C2-BC61B540B5CE}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751812A8-ABA8-4232-9D81-14F299F55479}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +1329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7552AB4B-37A5-4D47-8C03-7FFC70E2819F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1234,17 +1337,17 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1253,62 +1356,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD3FF30-5810-42A4-B6D3-B7BD65EBF170}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>